--- a/DoktoraTezi/Algoritma/Results.xlsx
+++ b/DoktoraTezi/Algoritma/Results.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.75514204</v>
+        <v>120.1665426248688</v>
       </c>
       <c r="C2" t="n">
-        <v>121.2292520201137</v>
+        <v>120.1135972081508</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.826248250958487</v>
+        <v>-0.04406003165399773</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.49278405</v>
+        <v>4.339715791978226</v>
       </c>
       <c r="C3" t="n">
-        <v>4.340088430361254</v>
+        <v>4.336680249864907</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.398685935923097</v>
+        <v>-0.06994794725798199</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.26235799</v>
+        <v>115.8268268328906</v>
       </c>
       <c r="C4" t="n">
-        <v>116.8892800749541</v>
+        <v>115.7769171809539</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.804766155779495</v>
+        <v>-0.04308988970981682</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.80343322498912</v>
+        <v>32.97594448549551</v>
       </c>
       <c r="C5" t="n">
-        <v>33.81980180219436</v>
+        <v>32.96141527391701</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.826248250958503</v>
+        <v>-0.04406003165397152</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.04073407279642</v>
+        <v>11.41730787833502</v>
       </c>
       <c r="C6" t="n">
-        <v>11.70043303666145</v>
+        <v>11.41227740886982</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.826248250958481</v>
+        <v>-0.04406003165378182</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.710080392771459</v>
+        <v>6.274606138185799</v>
       </c>
       <c r="C7" t="n">
-        <v>6.520436863032848</v>
+        <v>6.271841544735148</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.826248250958482</v>
+        <v>-0.0440600316540444</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.49950854803571</v>
+        <v>8.096432633013896</v>
       </c>
       <c r="C8" t="n">
-        <v>10.20276637133762</v>
+        <v>8.092865342232944</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.826248250958487</v>
+        <v>-0.04406003165401148</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01493268573166667</v>
+        <v>0.01264774791671885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01451065096235431</v>
+        <v>0.01264217531498322</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.826248250958487</v>
+        <v>-0.0440600316540489</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.8238309643244</v>
+        <v>178.9434815078158</v>
       </c>
       <c r="C10" t="n">
-        <v>183.4872007443024</v>
+        <v>178.8646389532207</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.826248250958495</v>
+        <v>-0.04406003165396003</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.57865659872232</v>
+        <v>9.897574952562302</v>
       </c>
       <c r="C11" t="n">
-        <v>11.87022589038868</v>
+        <v>9.84928994616125</v>
       </c>
       <c r="D11" t="n">
-        <v>-18.57805408881781</v>
+        <v>-0.487846837558446</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>170.6598793442322</v>
+        <v>165.6482148016221</v>
       </c>
       <c r="C12" t="n">
-        <v>167.9537589215067</v>
+        <v>165.6190620231769</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.585680496859543</v>
+        <v>-0.01759921076127246</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>182.3024892091926</v>
+        <v>178.602713370594</v>
       </c>
       <c r="C13" t="n">
-        <v>183.1952192790073</v>
+        <v>178.6701446789181</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4896971367134257</v>
+        <v>0.03775491819334377</v>
       </c>
     </row>
     <row r="14">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.64260986496041</v>
+        <v>12.95449856897108</v>
       </c>
       <c r="C14" t="n">
-        <v>15.56461898440163</v>
+        <v>13.05127599212444</v>
       </c>
       <c r="D14" t="n">
-        <v>33.68668335477682</v>
+        <v>0.7470564965375368</v>
       </c>
     </row>
     <row r="15">
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>969.77677871</v>
+        <v>977.3221146187796</v>
       </c>
       <c r="C15" t="n">
-        <v>983.1693158885072</v>
+        <v>980.4792840913038</v>
       </c>
       <c r="D15" t="n">
-        <v>1.380991736708931</v>
+        <v>0.3230428765807467</v>
       </c>
     </row>
     <row r="16">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>337.67090382</v>
+        <v>341.5042462748872</v>
       </c>
       <c r="C16" t="n">
-        <v>341.5289368921923</v>
+        <v>342.5721166844267</v>
       </c>
       <c r="D16" t="n">
-        <v>1.14254234775552</v>
+        <v>0.312696085389217</v>
       </c>
     </row>
     <row r="17">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>632.10587489</v>
+        <v>635.8178683438924</v>
       </c>
       <c r="C17" t="n">
-        <v>641.6440269138533</v>
+        <v>637.9071744102558</v>
       </c>
       <c r="D17" t="n">
-        <v>1.508948485174755</v>
+        <v>0.3286013448796898</v>
       </c>
     </row>
     <row r="18">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.314951048883784</v>
+        <v>7.230985637402298</v>
       </c>
       <c r="C18" t="n">
-        <v>7.415969918413176</v>
+        <v>7.254344821410029</v>
       </c>
       <c r="D18" t="n">
-        <v>1.380991736708985</v>
+        <v>0.323042876574203</v>
       </c>
     </row>
     <row r="19">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.6830672697365</v>
+        <v>388.4756849651046</v>
       </c>
       <c r="C19" t="n">
-        <v>398.1059879801869</v>
+        <v>389.7306279926162</v>
       </c>
       <c r="D19" t="n">
-        <v>1.380991736708973</v>
+        <v>0.3230428765765058</v>
       </c>
     </row>
     <row r="20">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>188.6723263042014</v>
+        <v>184.0678204222461</v>
       </c>
       <c r="C20" t="n">
-        <v>191.2778755399189</v>
+        <v>184.6624384042145</v>
       </c>
       <c r="D20" t="n">
-        <v>1.380991736708924</v>
+        <v>0.3230428765899308</v>
       </c>
     </row>
     <row r="21">
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>70.90150016343567</v>
+        <v>57.04151850785033</v>
       </c>
       <c r="C21" t="n">
-        <v>71.88064402189545</v>
+        <v>57.22578707008496</v>
       </c>
       <c r="D21" t="n">
-        <v>1.380991736709019</v>
+        <v>0.3230428765834402</v>
       </c>
     </row>
     <row r="22">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.80711817795288</v>
+        <v>2.480543750946661</v>
       </c>
       <c r="C22" t="n">
-        <v>2.845884248030064</v>
+        <v>2.488556970834601</v>
       </c>
       <c r="D22" t="n">
-        <v>1.380991736708975</v>
+        <v>0.3230428765822908</v>
       </c>
     </row>
     <row r="23">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1632.15574167421</v>
+        <v>1616.618667902329</v>
       </c>
       <c r="C23" t="n">
-        <v>1654.695677596951</v>
+        <v>1621.841039350488</v>
       </c>
       <c r="D23" t="n">
-        <v>1.380991736708935</v>
+        <v>0.3230428765823553</v>
       </c>
     </row>
     <row r="24">
@@ -809,13 +809,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.21154896883026</v>
+        <v>66.48042986348263</v>
       </c>
       <c r="C24" t="n">
-        <v>79.76110346912722</v>
+        <v>66.56552174894721</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.396369465947354</v>
+        <v>0.1279953899806519</v>
       </c>
     </row>
     <row r="25">
@@ -825,13 +825,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1598.622945818519</v>
+        <v>1601.325042633192</v>
       </c>
       <c r="C25" t="n">
-        <v>1626.80855189837</v>
+        <v>1606.627415160507</v>
       </c>
       <c r="D25" t="n">
-        <v>1.763117822972315</v>
+        <v>0.3311240620202592</v>
       </c>
     </row>
     <row r="26">
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1688.280189162921</v>
+        <v>1688.190495657271</v>
       </c>
       <c r="C26" t="n">
-        <v>1730.098294081037</v>
+        <v>1694.06301953394</v>
       </c>
       <c r="D26" t="n">
-        <v>2.476964735270073</v>
+        <v>0.347859077028057</v>
       </c>
     </row>
     <row r="27">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>89.65724334440112</v>
+        <v>86.86545302402588</v>
       </c>
       <c r="C27" t="n">
-        <v>104.2922707070069</v>
+        <v>87.43614812449158</v>
       </c>
       <c r="D27" t="n">
-        <v>16.32330731649656</v>
+        <v>0.656987422039751</v>
       </c>
     </row>
     <row r="28">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>273.3811899443184</v>
+        <v>262.8432971918509</v>
       </c>
       <c r="C28" t="n">
-        <v>264.6059028981159</v>
+        <v>261.4922953279594</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.209908863148148</v>
+        <v>-0.5139951744348241</v>
       </c>
     </row>
     <row r="29">
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.16199899791997</v>
+        <v>88.78082097760429</v>
       </c>
       <c r="C29" t="n">
-        <v>88.84215919065345</v>
+        <v>88.30877513611378</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.602178602203979</v>
+        <v>-0.5316979909541386</v>
       </c>
     </row>
     <row r="30">
@@ -905,13 +905,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>181.2191909463984</v>
+        <v>174.0624762142466</v>
       </c>
       <c r="C30" t="n">
-        <v>175.7653814063927</v>
+        <v>173.1835233069176</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.009509926362558</v>
+        <v>-0.5049640373075895</v>
       </c>
     </row>
     <row r="31">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.62031343249505</v>
+        <v>43.97119768653301</v>
       </c>
       <c r="C31" t="n">
-        <v>45.12384385959783</v>
+        <v>43.74518785229019</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.209908863148392</v>
+        <v>-0.5139951744185403</v>
       </c>
     </row>
     <row r="32">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.2687483726401</v>
+        <v>170.1567340578549</v>
       </c>
       <c r="C32" t="n">
-        <v>174.4822858411403</v>
+        <v>169.282136655839</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.209908863148213</v>
+        <v>-0.5139951744245951</v>
       </c>
     </row>
     <row r="33">
@@ -953,13 +953,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>231.8210441950324</v>
+        <v>215.7891252918483</v>
       </c>
       <c r="C33" t="n">
-        <v>224.3797999507732</v>
+        <v>214.6799796009138</v>
       </c>
       <c r="D33" t="n">
-        <v>-3.209908863148238</v>
+        <v>-0.513995174425209</v>
       </c>
     </row>
     <row r="34">
@@ -969,13 +969,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.83434017294367</v>
+        <v>14.45749649187857</v>
       </c>
       <c r="C34" t="n">
-        <v>18.22977501841683</v>
+        <v>14.38318565756911</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.209908863148418</v>
+        <v>-0.5139951744149006</v>
       </c>
     </row>
     <row r="35">
@@ -985,13 +985,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.61759937532612</v>
+        <v>24.12828343026968</v>
       </c>
       <c r="C35" t="n">
-        <v>27.69900051655726</v>
+        <v>24.00426521776546</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.20990886314828</v>
+        <v>-0.513995174429317</v>
       </c>
     </row>
     <row r="36">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>779.5432354927557</v>
+        <v>731.3461341502353</v>
       </c>
       <c r="C36" t="n">
-        <v>754.520608084601</v>
+        <v>727.5870503123491</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.20990886314826</v>
+        <v>-0.5139951744264002</v>
       </c>
     </row>
     <row r="37">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>258.8248584358914</v>
+        <v>190.4296458370008</v>
       </c>
       <c r="C37" t="n">
-        <v>228.5913856274514</v>
+        <v>188.778568324178</v>
       </c>
       <c r="D37" t="n">
-        <v>-11.68105451352098</v>
+        <v>-0.8670275605280942</v>
       </c>
     </row>
     <row r="38">
@@ -1033,13 +1033,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>610.9886367883252</v>
+        <v>625.6055760732088</v>
       </c>
       <c r="C38" t="n">
-        <v>611.1807559107784</v>
+        <v>623.059689131255</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03144397635006044</v>
+        <v>-0.4069476103352132</v>
       </c>
     </row>
     <row r="39">
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>892.98896599103</v>
+        <v>880.713310132636</v>
       </c>
       <c r="C39" t="n">
-        <v>915.9542168555386</v>
+        <v>877.9113064507442</v>
       </c>
       <c r="D39" t="n">
-        <v>2.571728401931816</v>
+        <v>-0.3181516220607434</v>
       </c>
     </row>
     <row r="40">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>282.0003292027048</v>
+        <v>255.1077340594897</v>
       </c>
       <c r="C40" t="n">
-        <v>306.4652732570037</v>
+        <v>254.8537612565047</v>
       </c>
       <c r="D40" t="n">
-        <v>8.675501948337523</v>
+        <v>-0.09955511694748496</v>
       </c>
     </row>
     <row r="41">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.553358433112731</v>
+        <v>4.982487742442812</v>
       </c>
       <c r="C41" t="n">
-        <v>5.720749853477362</v>
+        <v>3.397222631364011</v>
       </c>
       <c r="D41" t="n">
-        <v>25.6380304233284</v>
+        <v>-31.81673880649785</v>
       </c>
     </row>
     <row r="42">
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.535023735302266</v>
+        <v>1.682939443428343</v>
       </c>
       <c r="C42" t="n">
-        <v>1.60063123940788</v>
+        <v>1.147278810123793</v>
       </c>
       <c r="D42" t="n">
-        <v>4.274038413659769</v>
+        <v>-31.82887152572446</v>
       </c>
     </row>
     <row r="43">
@@ -1113,13 +1113,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.018334697810465</v>
+        <v>3.299548299014469</v>
       </c>
       <c r="C43" t="n">
-        <v>3.166689810878782</v>
+        <v>2.249943861709776</v>
       </c>
       <c r="D43" t="n">
-        <v>4.915131286663998</v>
+        <v>-31.81054926876493</v>
       </c>
     </row>
     <row r="44">
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.6719130266891</v>
+        <v>30.71612306183699</v>
       </c>
       <c r="C44" t="n">
-        <v>38.56561292068642</v>
+        <v>20.92295567615014</v>
       </c>
       <c r="D44" t="n">
-        <v>25.73592291791068</v>
+        <v>-31.88282377294644</v>
       </c>
     </row>
     <row r="45">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.38140198266381</v>
+        <v>11.60732924407596</v>
       </c>
       <c r="C45" t="n">
-        <v>14.88153333598084</v>
+        <v>2.232967323143691</v>
       </c>
       <c r="D45" t="n">
-        <v>-45.6509445885828</v>
+        <v>-80.7624365933849</v>
       </c>
     </row>
     <row r="46">
@@ -1161,13 +1161,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.290511044025296</v>
+        <v>19.10879381776103</v>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>19.10879381776103</v>
       </c>
       <c r="D46" t="n">
-        <v>720.5412362625224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1177,13 +1177,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>35.22527145980183</v>
+        <v>35.6986108042798</v>
       </c>
       <c r="C47" t="n">
-        <v>44.28620870872476</v>
+        <v>24.32004409870336</v>
       </c>
       <c r="D47" t="n">
-        <v>25.72283157352823</v>
+        <v>-31.87397618344382</v>
       </c>
     </row>
     <row r="48">
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.7781268692326758</v>
+        <v>1.003107383925229</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9782831332337654</v>
+        <v>0.6833771752785351</v>
       </c>
       <c r="D48" t="n">
-        <v>25.72283157352824</v>
+        <v>-31.87397618344382</v>
       </c>
     </row>
     <row r="49">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.435426947836896</v>
+        <v>3.14201109425963</v>
       </c>
       <c r="C49" t="n">
-        <v>3.0618877197253</v>
+        <v>2.140527226394154</v>
       </c>
       <c r="D49" t="n">
-        <v>25.72283157352824</v>
+        <v>-31.87397618344378</v>
       </c>
     </row>
     <row r="50">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.206352639451476</v>
+        <v>1.534810935284364</v>
       </c>
       <c r="C50" t="n">
-        <v>1.516660697080391</v>
+        <v>1.045605663310935</v>
       </c>
       <c r="D50" t="n">
-        <v>25.72283157352824</v>
+        <v>-31.87397618344377</v>
       </c>
     </row>
     <row r="51">
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.945801544776261</v>
+        <v>3.090651807411468</v>
       </c>
       <c r="C51" t="n">
-        <v>3.703545114629452</v>
+        <v>2.105538186403962</v>
       </c>
       <c r="D51" t="n">
-        <v>25.72283157352823</v>
+        <v>-31.87397618344379</v>
       </c>
     </row>
     <row r="52">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.108532317256667</v>
+        <v>1.277454657505579</v>
       </c>
       <c r="C52" t="n">
-        <v>1.393678218162729</v>
+        <v>0.8702790642179572</v>
       </c>
       <c r="D52" t="n">
-        <v>25.72283157352826</v>
+        <v>-31.8739761834438</v>
       </c>
     </row>
     <row r="53">
@@ -1273,13 +1273,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>43.69951177835581</v>
+        <v>45.74664668266607</v>
       </c>
       <c r="C53" t="n">
-        <v>54.9402635915564</v>
+        <v>31.1653714143089</v>
       </c>
       <c r="D53" t="n">
-        <v>25.72283157352823</v>
+        <v>-31.8739761834438</v>
       </c>
     </row>
     <row r="54">
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12.518718383132</v>
+        <v>22.98024671579138</v>
       </c>
       <c r="C54" t="n">
-        <v>24.06656835392629</v>
+        <v>7.602798472500314</v>
       </c>
       <c r="D54" t="n">
-        <v>92.24466608621951</v>
+        <v>-66.91594060530306</v>
       </c>
     </row>
     <row r="55">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>74.70402196181116</v>
+        <v>68.32850532455267</v>
       </c>
       <c r="C55" t="n">
-        <v>85.36009225647987</v>
+        <v>54.2904024960266</v>
       </c>
       <c r="D55" t="n">
-        <v>14.2643863273066</v>
+        <v>-20.54501669815059</v>
       </c>
     </row>
     <row r="56">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>103.9640944118484</v>
+        <v>83.46422788417715</v>
       </c>
       <c r="C56" t="n">
-        <v>104.9882822437883</v>
+        <v>82.53580325947918</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9851361065894694</v>
+        <v>-1.112362323636825</v>
       </c>
     </row>
     <row r="57">
@@ -1337,13 +1337,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>29.2600724500374</v>
+        <v>15.13572255962492</v>
       </c>
       <c r="C57" t="n">
-        <v>19.87205961059786</v>
+        <v>28.88195906063052</v>
       </c>
       <c r="D57" t="n">
-        <v>-32.08472178416476</v>
+        <v>90.81982341347997</v>
       </c>
     </row>
     <row r="58">
@@ -1353,13 +1353,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8.059639892568823</v>
+        <v>6.720667534455887</v>
       </c>
       <c r="C58" t="n">
-        <v>8.0986479494133</v>
+        <v>6.552699993972212</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4839925525759898</v>
+        <v>-2.499268705415502</v>
       </c>
     </row>
     <row r="59">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.717057906777762</v>
+        <v>2.270046022101968</v>
       </c>
       <c r="C59" t="n">
-        <v>2.265952757385109</v>
+        <v>2.21291762947081</v>
       </c>
       <c r="D59" t="n">
-        <v>-16.60270648878558</v>
+        <v>-2.516618256851875</v>
       </c>
     </row>
     <row r="60">
@@ -1385,13 +1385,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.342581985791061</v>
+        <v>4.450621512353919</v>
       </c>
       <c r="C60" t="n">
-        <v>4.482962303921148</v>
+        <v>4.339782442560724</v>
       </c>
       <c r="D60" t="n">
-        <v>-16.08996706379287</v>
+        <v>-2.49041778739287</v>
       </c>
     </row>
     <row r="61">
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8.498333670733832</v>
+        <v>6.368786264115549</v>
       </c>
       <c r="C61" t="n">
-        <v>8.547828779562858</v>
+        <v>6.196078106878571</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5824095728257299</v>
+        <v>-2.711790756899622</v>
       </c>
     </row>
     <row r="62">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8.383306427161031</v>
+        <v>2.254796681900563</v>
       </c>
       <c r="C62" t="n">
-        <v>2.983812957683511</v>
+        <v>2.082529264553832</v>
       </c>
       <c r="D62" t="n">
-        <v>-64.40768348850675</v>
+        <v>-7.640042170078362</v>
       </c>
     </row>
     <row r="63">
@@ -1433,13 +1433,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1150272435727997</v>
+        <v>4.113989582214986</v>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>4.113989582214986</v>
       </c>
       <c r="D63" t="n">
-        <v>6854.87412504749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>16.55797356330265</v>
+        <v>13.08945379857144</v>
       </c>
       <c r="C64" t="n">
-        <v>16.64627736530923</v>
+        <v>12.74801989322417</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5333007790414976</v>
+        <v>-2.608465644185443</v>
       </c>
     </row>
     <row r="65">
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.377317961867574</v>
+        <v>1.352730326209273</v>
       </c>
       <c r="C65" t="n">
-        <v>1.384663209288093</v>
+        <v>1.31744482039162</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5333007790414961</v>
+        <v>-2.608465644185911</v>
       </c>
     </row>
     <row r="66">
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.310810245352239</v>
+        <v>4.237127311195032</v>
       </c>
       <c r="C66" t="n">
-        <v>4.333799829973704</v>
+        <v>4.126603300982095</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5333007790415152</v>
+        <v>-2.608465644185804</v>
       </c>
     </row>
     <row r="67">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>9.296708251939341</v>
+        <v>9.011348966068448</v>
       </c>
       <c r="C67" t="n">
-        <v>9.346287669472147</v>
+        <v>8.776291024210879</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5333007790414809</v>
+        <v>-2.608465644185593</v>
       </c>
     </row>
     <row r="68">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01493268573166667</v>
+        <v>0.01311037337882964</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01501232186100547</v>
+        <v>0.01276839379341838</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5333007790415023</v>
+        <v>-2.608465644185836</v>
       </c>
     </row>
     <row r="70">
@@ -1545,13 +1545,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>31.55774270819347</v>
+        <v>27.70377077542381</v>
       </c>
       <c r="C70" t="n">
-        <v>31.72604039590418</v>
+        <v>26.98112743260296</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5333007790415025</v>
+        <v>-2.60846564418557</v>
       </c>
     </row>
     <row r="71">
@@ -1561,13 +1561,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1112051357958554</v>
+        <v>0.0595795089519276</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06953922451013934</v>
+        <v>0.03286898552034971</v>
       </c>
       <c r="D71" t="n">
-        <v>-37.46761423159824</v>
+        <v>-44.83172805792941</v>
       </c>
     </row>
     <row r="72">
@@ -1577,13 +1577,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>38.70559705024418</v>
+        <v>34.01674210698715</v>
       </c>
       <c r="C72" t="n">
-        <v>38.9533607993852</v>
+        <v>33.15394655944186</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6401238271028273</v>
+        <v>-2.536385009568769</v>
       </c>
     </row>
     <row r="73">
@@ -1593,13 +1593,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>76.4243079803189</v>
+        <v>75.95425620664719</v>
       </c>
       <c r="C73" t="n">
-        <v>77.8480807944245</v>
+        <v>75.63794915246096</v>
       </c>
       <c r="D73" t="n">
-        <v>1.862984241181824</v>
+        <v>-0.4164441467580899</v>
       </c>
     </row>
     <row r="74">
@@ -1609,13 +1609,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>592.3747160350331</v>
+        <v>588.7312838168154</v>
       </c>
       <c r="C74" t="n">
-        <v>602.9789338585484</v>
+        <v>586.3139635128751</v>
       </c>
       <c r="D74" t="n">
-        <v>1.790119925187389</v>
+        <v>-0.4105982424219966</v>
       </c>
     </row>
     <row r="75">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>303.3435944784104</v>
+        <v>301.4778635560812</v>
       </c>
       <c r="C75" t="n">
-        <v>313.0985901945012</v>
+        <v>299.7505399362342</v>
       </c>
       <c r="D75" t="n">
-        <v>3.215823868924707</v>
+        <v>-0.5729520567355526</v>
       </c>
     </row>
     <row r="76">
@@ -1641,13 +1641,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.782943982657105</v>
+        <v>0.7781284440220905</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9715517175089733</v>
+        <v>0.7284270031874395</v>
       </c>
       <c r="D76" t="n">
-        <v>24.08955672815615</v>
+        <v>-6.387305491333513</v>
       </c>
     </row>
     <row r="77">
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6.14248180824518</v>
+        <v>6.104702146969678</v>
       </c>
       <c r="C77" t="n">
-        <v>6.985274843811797</v>
+        <v>5.765434737515437</v>
       </c>
       <c r="D77" t="n">
-        <v>13.72072497529123</v>
+        <v>-5.55747686433236</v>
       </c>
     </row>
     <row r="78">
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1380.52610902</v>
+        <v>1372.035109712398</v>
       </c>
       <c r="C78" t="n">
-        <v>1372.04897792011</v>
+        <v>1371.665197349191</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.6140507625681304</v>
+        <v>-0.02696085257496854</v>
       </c>
     </row>
     <row r="79">
@@ -1689,13 +1689,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>979.0680442846646</v>
+        <v>973.0462341705353</v>
       </c>
       <c r="C79" t="n">
-        <v>973.0560694926735</v>
+        <v>972.7838926098572</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.6140507625681511</v>
+        <v>-0.02696085257467282</v>
       </c>
     </row>
     <row r="80">
@@ -1705,13 +1705,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.113982798061389</v>
+        <v>1.892923787180744</v>
       </c>
       <c r="C80" t="n">
-        <v>1.86676445898574</v>
+        <v>2.234564520674406</v>
       </c>
       <c r="D80" t="n">
-        <v>1537.759811774699</v>
+        <v>18.04830896031424</v>
       </c>
     </row>
     <row r="81">
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.204008270622569</v>
+        <v>36.60218694015152</v>
       </c>
       <c r="C81" t="n">
-        <v>36.07054136622428</v>
+        <v>43.21079920205452</v>
       </c>
       <c r="D81" t="n">
-        <v>1536.588294472933</v>
+        <v>18.05523881048087</v>
       </c>
     </row>
     <row r="82">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.087547218914138</v>
+        <v>18.06100600597756</v>
       </c>
       <c r="C82" t="n">
-        <v>18.04796417256991</v>
+        <v>21.28720402756355</v>
       </c>
       <c r="D82" t="n">
-        <v>1559.510856971333</v>
+        <v>17.86278140053897</v>
       </c>
     </row>
     <row r="83">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3.405538287598096</v>
+        <v>56.55611673330936</v>
       </c>
       <c r="C83" t="n">
-        <v>54.41825005353398</v>
+        <v>67.02465966993555</v>
       </c>
       <c r="D83" t="n">
-        <v>1497.933878814642</v>
+        <v>18.51001013027583</v>
       </c>
     </row>
     <row r="84">
@@ -1785,13 +1785,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>214.4304649223457</v>
+        <v>210.43532109869</v>
       </c>
       <c r="C85" t="n">
-        <v>214.2067178245949</v>
+        <v>200.9582331878066</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1043448270430572</v>
+        <v>-4.5035633093357</v>
       </c>
     </row>
     <row r="86">
@@ -1801,13 +1801,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8.971237560804246</v>
+        <v>8.804090675474399</v>
       </c>
       <c r="C86" t="n">
-        <v>9.087399356749533</v>
+        <v>8.3938865524312</v>
       </c>
       <c r="D86" t="n">
-        <v>1.294824656665016</v>
+        <v>-4.659244641651712</v>
       </c>
     </row>
     <row r="87">
@@ -1817,13 +1817,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>286.0215449817638</v>
+        <v>280.6925577537589</v>
       </c>
       <c r="C87" t="n">
-        <v>278.9746309881746</v>
+        <v>269.0839758459103</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.463770340810714</v>
+        <v>-4.135692802383582</v>
       </c>
     </row>
     <row r="88">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>96.87553911409999</v>
+        <v>96.27970095488892</v>
       </c>
       <c r="C88" t="n">
-        <v>96.28067412742786</v>
+        <v>96.25374312665454</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.6140507625681478</v>
+        <v>-0.02696085257529492</v>
       </c>
     </row>
     <row r="89">
@@ -1849,13 +1849,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.886659455768148</v>
+        <v>4.894954574030576</v>
       </c>
       <c r="C89" t="n">
-        <v>4.897539462818644</v>
+        <v>4.926202145682006</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2226471303960786</v>
+        <v>0.6383628525831256</v>
       </c>
     </row>
     <row r="90">
@@ -1865,13 +1865,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>184.2593464118957</v>
+        <v>179.5179022248394</v>
       </c>
       <c r="C90" t="n">
-        <v>177.7964173979281</v>
+        <v>167.9040305735738</v>
       </c>
       <c r="D90" t="n">
-        <v>-3.507517604843956</v>
+        <v>-6.469478256669746</v>
       </c>
     </row>
     <row r="91">
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-3.062249352464258</v>
+        <v>-2.902014844082576</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.903931681987026</v>
+        <v>-2.912283633207053</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.169979719314161</v>
+        <v>0.3538503307595441</v>
       </c>
     </row>
     <row r="92">
@@ -1897,13 +1897,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6.489934044130157</v>
+        <v>6.428154042722357</v>
       </c>
       <c r="C92" t="n">
-        <v>6.431958825281494</v>
+        <v>6.474068960922796</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.8933098311083671</v>
+        <v>0.7142784366286564</v>
       </c>
     </row>
     <row r="93">
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.394630637502514</v>
+        <v>1.308404305067463</v>
       </c>
       <c r="C93" t="n">
-        <v>1.310067238359141</v>
+        <v>1.309401329926945</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.063497880328225</v>
+        <v>0.07620158811924233</v>
       </c>
     </row>
     <row r="94">
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0232285665873459</v>
+        <v>0.02431672541344918</v>
       </c>
       <c r="C94" t="n">
-        <v>0.02332444421336766</v>
+        <v>0.01780686875566822</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4127573936223454</v>
+        <v>-26.77110732261865</v>
       </c>
     </row>
     <row r="95">
@@ -1945,13 +1945,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.04111556001238905</v>
+        <v>0.03609434490988286</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03612063695166812</v>
+        <v>0.03720861928364971</v>
       </c>
       <c r="D95" t="n">
-        <v>-12.14849818223527</v>
+        <v>3.087116213215312</v>
       </c>
     </row>
     <row r="96">
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.5230456689055937</v>
+        <v>-0.4956769095487465</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.4960043139004234</v>
+        <v>-0.4974308639326828</v>
       </c>
       <c r="D96" t="n">
-        <v>-5.169979719314163</v>
+        <v>0.3538503307594237</v>
       </c>
     </row>
     <row r="97">
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>45.18881906900908</v>
+        <v>44.75865055162298</v>
       </c>
       <c r="C97" t="n">
-        <v>44.78514290570391</v>
+        <v>45.07835194103858</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.8933098311082197</v>
+        <v>0.7142784366272927</v>
       </c>
     </row>
     <row r="98">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>88.87562909395837</v>
+        <v>83.38068345490669</v>
       </c>
       <c r="C98" t="n">
-        <v>83.48665720771781</v>
+        <v>83.44422085988136</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.06349788032824</v>
+        <v>0.07620158811606423</v>
       </c>
     </row>
     <row r="99">
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>43.5</v>
+        <v>45.53778863226452</v>
       </c>
       <c r="C99" t="n">
-        <v>43.67954946622572</v>
+        <v>33.34681836517376</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4127573936223509</v>
+        <v>-26.77110732261863</v>
       </c>
     </row>
     <row r="100">
@@ -2025,13 +2025,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>7.21794391783386</v>
+        <v>6.336456495593973</v>
       </c>
       <c r="C100" t="n">
-        <v>6.341072132181051</v>
+        <v>6.532070271412776</v>
       </c>
       <c r="D100" t="n">
-        <v>-12.1484981822353</v>
+        <v>3.087116213215098</v>
       </c>
     </row>
     <row r="101">
@@ -2041,13 +2041,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>14.87005589334412</v>
+        <v>14.22156785719976</v>
       </c>
       <c r="C101" t="n">
-        <v>14.75781210286985</v>
+        <v>14.83586106249444</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.7548309924276142</v>
+        <v>4.319447837698799</v>
       </c>
     </row>
     <row r="102">
@@ -2057,13 +2057,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>287.5322130265569</v>
+        <v>274.992838494865</v>
       </c>
       <c r="C102" t="n">
-        <v>285.1577066239821</v>
+        <v>286.8878510465022</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.8258227408959704</v>
+        <v>4.325571755520233</v>
       </c>
     </row>
     <row r="103">
@@ -2073,13 +2073,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>141.8800749495052</v>
+        <v>135.6926381414698</v>
       </c>
       <c r="C103" t="n">
-        <v>142.6792024114423</v>
+        <v>141.3313414940322</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5632414997112761</v>
+        <v>4.155496886045947</v>
       </c>
     </row>
     <row r="104">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>444.282343869406</v>
+        <v>424.9070444935338</v>
       </c>
       <c r="C104" t="n">
-        <v>430.206556264405</v>
+        <v>444.9943286148904</v>
       </c>
       <c r="D104" t="n">
-        <v>-3.168207739792247</v>
+        <v>4.727453776460584</v>
       </c>
     </row>
     <row r="105">
@@ -2105,13 +2105,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>304.5825256212354</v>
+        <v>302.7091745869735</v>
       </c>
       <c r="C105" t="n">
-        <v>302.712234300009</v>
+        <v>302.6275616126797</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.6140507625681189</v>
+        <v>-0.02696085257580125</v>
       </c>
     </row>
     <row r="106">
@@ -2121,13 +2121,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>62.61984249861381</v>
+        <v>61.45314597959446</v>
       </c>
       <c r="C106" t="n">
-        <v>61.07703339167058</v>
+        <v>58.911632644478</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.463770340810705</v>
+        <v>-4.135692802383743</v>
       </c>
     </row>
     <row r="107">
@@ -2140,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9913235717558452</v>
+        <v>0.9996180275230092</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.8676428244154821</v>
+        <v>-0.03819724769907884</v>
       </c>
     </row>
     <row r="108">
@@ -2156,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9941303363973351</v>
+        <v>0.9997421830873724</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5869663602664943</v>
+        <v>-0.02578169126276064</v>
       </c>
     </row>
     <row r="109">
@@ -2172,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9940281931070246</v>
+        <v>0.9997375586085652</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.5971806892975384</v>
+        <v>-0.02624413914348311</v>
       </c>
     </row>
     <row r="110">
@@ -2188,10 +2188,10 @@
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8283568275891874</v>
+        <v>0.9997375586084577</v>
       </c>
       <c r="D110" t="n">
-        <v>-17.16431724108126</v>
+        <v>-0.02624413915423007</v>
       </c>
     </row>
     <row r="111">
@@ -2204,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8283568275891875</v>
+        <v>0.9997375586084583</v>
       </c>
       <c r="D111" t="n">
-        <v>-17.16431724108125</v>
+        <v>-0.02624413915417456</v>
       </c>
     </row>
     <row r="112">
@@ -2220,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9758810231552187</v>
+        <v>1.00398085759125</v>
       </c>
       <c r="D112" t="n">
-        <v>-2.411897684478126</v>
+        <v>0.3980857591249887</v>
       </c>
     </row>
     <row r="113">
@@ -2236,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9775667851649775</v>
+        <v>1.003899757711006</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.243321483502247</v>
+        <v>0.3899757711006036</v>
       </c>
     </row>
     <row r="114">
@@ -2252,10 +2252,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9705177566870441</v>
+        <v>1.005932460184452</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.94822433129559</v>
+        <v>0.5932460184452149</v>
       </c>
     </row>
     <row r="115">
@@ -2268,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.798683549653402</v>
+        <v>1.074903371354326</v>
       </c>
       <c r="D115" t="n">
-        <v>-20.13164503465979</v>
+        <v>7.490337135432568</v>
       </c>
     </row>
     <row r="116">
@@ -2284,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8738547440200968</v>
+        <v>1.05848128274263</v>
       </c>
       <c r="D116" t="n">
-        <v>-12.61452559799032</v>
+        <v>5.84812827426302</v>
       </c>
     </row>
     <row r="117">
@@ -2300,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2316,10 +2316,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2332,10 +2332,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2348,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2364,10 +2364,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2380,10 +2380,10 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9869971792126715</v>
+        <v>1.00421815661792</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.300282078732851</v>
+        <v>0.4218156617920243</v>
       </c>
     </row>
     <row r="123">
@@ -2396,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0.984949979277985</v>
+        <v>1.00406149576477</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.5050020722015</v>
+        <v>0.4061495764769996</v>
       </c>
     </row>
     <row r="124">
@@ -2412,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1.025195157017913</v>
+        <v>1.007734084449635</v>
       </c>
       <c r="D124" t="n">
-        <v>2.519515701791297</v>
+        <v>0.7734084449634748</v>
       </c>
     </row>
     <row r="125">
@@ -2428,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7910873013523351</v>
+        <v>1.091566590771117</v>
       </c>
       <c r="D125" t="n">
-        <v>-20.89126986476649</v>
+        <v>9.156659077111652</v>
       </c>
     </row>
     <row r="126">
@@ -2444,10 +2444,10 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8739475522955559</v>
+        <v>1.058559596124017</v>
       </c>
       <c r="D126" t="n">
-        <v>-12.60524477044441</v>
+        <v>5.855959612401662</v>
       </c>
     </row>
     <row r="127">
@@ -2460,10 +2460,10 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.975682677842178</v>
+        <v>1.00391112057454</v>
       </c>
       <c r="D127" t="n">
-        <v>-2.431732215782201</v>
+        <v>0.391112057454035</v>
       </c>
     </row>
     <row r="128">
@@ -2476,10 +2476,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9763810997617204</v>
+        <v>1.003852190926716</v>
       </c>
       <c r="D128" t="n">
-        <v>-2.361890023827962</v>
+        <v>0.3852190926716403</v>
       </c>
     </row>
     <row r="129">
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.962894501173033</v>
+        <v>1.005491374987545</v>
       </c>
       <c r="D129" t="n">
-        <v>-3.710549882696701</v>
+        <v>0.5491374987544706</v>
       </c>
     </row>
     <row r="130">
@@ -2508,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8009211400050156</v>
+        <v>1.067943185185959</v>
       </c>
       <c r="D130" t="n">
-        <v>-19.90788599949844</v>
+        <v>6.794318518595888</v>
       </c>
     </row>
     <row r="131">
@@ -2524,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2540,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2556,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2572,10 +2572,10 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2588,10 +2588,10 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.25</v>
       </c>
       <c r="D135" t="n">
-        <v>-16.66666666666666</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136">
@@ -2604,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6352254840673772</v>
+        <v>1.060046751376326</v>
       </c>
       <c r="D136" t="n">
-        <v>-36.47745159326228</v>
+        <v>6.004675137632609</v>
       </c>
     </row>
     <row r="137">
@@ -2620,10 +2620,10 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7662879858951099</v>
+        <v>1.10153767565358</v>
       </c>
       <c r="D137" t="n">
-        <v>-23.37120141048901</v>
+        <v>10.153767565358</v>
       </c>
     </row>
     <row r="138">
@@ -2636,10 +2636,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0.774308504830412</v>
+        <v>1.087323481631651</v>
       </c>
       <c r="D138" t="n">
-        <v>-22.5691495169588</v>
+        <v>8.732348163165128</v>
       </c>
     </row>
     <row r="139">
@@ -2652,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.25</v>
       </c>
       <c r="D139" t="n">
-        <v>-16.66666666666666</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140">
@@ -2668,10 +2668,10 @@
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4917285812976823</v>
+        <v>1.240104791729679</v>
       </c>
       <c r="D140" t="n">
-        <v>-50.82714187023177</v>
+        <v>24.01047917296786</v>
       </c>
     </row>
     <row r="141">
@@ -2684,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7511076337656198</v>
+        <v>1.243518826234525</v>
       </c>
       <c r="D141" t="n">
-        <v>-24.88923662343802</v>
+        <v>24.35188262345249</v>
       </c>
     </row>
     <row r="142">
@@ -2700,10 +2700,10 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7886994481390357</v>
+        <v>1.118285050415391</v>
       </c>
       <c r="D142" t="n">
-        <v>-21.13005518609643</v>
+        <v>11.82850504153905</v>
       </c>
     </row>
     <row r="143">
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>77.07997574955672</v>
+        <v>60.74472392696583</v>
       </c>
       <c r="C143" t="n">
-        <v>79.70074628727058</v>
+        <v>83.45513435773282</v>
       </c>
       <c r="D143" t="n">
-        <v>3.400066634983242</v>
+        <v>37.38663864547645</v>
       </c>
     </row>
     <row r="144">
@@ -2732,10 +2732,10 @@
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9910004288607804</v>
+        <v>0.9996037179773744</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.8999571139219564</v>
+        <v>-0.03962820226256492</v>
       </c>
     </row>
   </sheetData>
